--- a/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B574CFA8-6ECD-4E8D-87CA-2A38BBBF07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E9125-60B8-4BEF-91C7-AE8081260CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Tension Bolt, ~ KS ~ 5.5 ST</t>
-  </si>
-  <si>
-    <t>profile, C R 49.25 ~ 1.75 C/H</t>
-  </si>
-  <si>
-    <t>Retarding Curtain</t>
-  </si>
-  <si>
-    <t>Side Plate</t>
-  </si>
-  <si>
-    <t>wear protection, PL SW 0.75 4 ~ 48 ~ ~</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SAP No.</t>
   </si>
@@ -63,6 +48,9 @@
   </si>
   <si>
     <t>Defect Types (Reasons to Reject)</t>
+  </si>
+  <si>
+    <t>Supplier Code</t>
   </si>
 </sst>
 </file>
@@ -457,71 +445,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3389F-2737-4AAC-865C-901D336B7C41}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>200000046</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200000114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>200000503</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200000541</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>200000572</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B574CFA8-6ECD-4E8D-87CA-2A38BBBF07C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C81C4-1F0C-4538-8114-1DD50BE509E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Tension Bolt, ~ KS ~ 5.5 ST</t>
-  </si>
-  <si>
-    <t>profile, C R 49.25 ~ 1.75 C/H</t>
-  </si>
-  <si>
-    <t>Retarding Curtain</t>
-  </si>
-  <si>
-    <t>Side Plate</t>
-  </si>
-  <si>
-    <t>wear protection, PL SW 0.75 4 ~ 48 ~ ~</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SAP No.</t>
   </si>
@@ -62,7 +47,10 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Defect Types (Reasons to Reject)</t>
+    <t>Supplier Code</t>
+  </si>
+  <si>
+    <t>Defect Type (Reasons to Reject)</t>
   </si>
 </sst>
 </file>
@@ -457,70 +445,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3389F-2737-4AAC-865C-901D336B7C41}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="32.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>200000046</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200000114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>200000503</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200000541</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>200000572</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C81C4-1F0C-4538-8114-1DD50BE509E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB493953-7BEA-4791-A66E-D8FBA56C30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>SAP No.</t>
-  </si>
-  <si>
-    <t>Item Name / Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Supplier</t>
   </si>
@@ -52,12 +46,91 @@
   <si>
     <t>Defect Type (Reasons to Reject)</t>
   </si>
+  <si>
+    <r>
+      <t>Fields marked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF212529"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are required.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAP No. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Item Name / Description </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,8 +146,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -100,16 +210,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,36 +558,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3389F-2737-4AAC-865C-901D336B7C41}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="14.21875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
+++ b/HaverDevProject/wwwroot/templates/item-upload-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB493953-7BEA-4791-A66E-D8FBA56C30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE862B9-19B4-4B3C-BD62-99A363BE58A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
+    <workbookView xWindow="4872" yWindow="1524" windowWidth="17280" windowHeight="8880" xr2:uid="{796EB6AB-8C68-47CF-91EB-20690646CA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Supplier Code</t>
-  </si>
-  <si>
-    <t>Defect Type (Reasons to Reject)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <t>Fields marked</t>
@@ -210,13 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -558,40 +546,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D3389F-2737-4AAC-865C-901D336B7C41}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
